--- a/public/excel/customer_excel_structure.xlsx
+++ b/public/excel/customer_excel_structure.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="30">
   <si>
     <t>pick_up_city</t>
   </si>
@@ -65,9 +65,6 @@
     <t>no_of_packages</t>
   </si>
   <si>
-    <t>declared_value</t>
-  </si>
-  <si>
     <t>reference</t>
   </si>
   <si>
@@ -111,6 +108,9 @@
   </si>
   <si>
     <t>cash_on_delivery</t>
+  </si>
+  <si>
+    <t>10</t>
   </si>
 </sst>
 </file>
@@ -453,10 +453,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W4"/>
+  <dimension ref="A1:V4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S1" sqref="S1:S1048576"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -476,13 +476,12 @@
     <col min="13" max="13" width="15.54296875" style="1" customWidth="1"/>
     <col min="14" max="15" width="14.81640625" style="1" customWidth="1"/>
     <col min="16" max="16" width="14.54296875" style="1" customWidth="1"/>
-    <col min="17" max="17" width="13.54296875" style="1" customWidth="1"/>
-    <col min="18" max="18" width="8.90625" style="1"/>
-    <col min="19" max="19" width="10.81640625" style="1" customWidth="1"/>
-    <col min="20" max="16384" width="8.90625" style="1"/>
+    <col min="17" max="17" width="8.90625" style="1"/>
+    <col min="18" max="18" width="10.81640625" style="1" customWidth="1"/>
+    <col min="19" max="16384" width="8.90625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -523,10 +522,10 @@
         <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>29</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>13</v>
@@ -549,52 +548,49 @@
       <c r="V1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="W1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="C2" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D2" s="1">
         <v>123456789</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="G2" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="J2" s="1">
         <v>987654321</v>
       </c>
       <c r="K2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="L2" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="M2" s="1">
         <v>1</v>
       </c>
-      <c r="N2" s="1">
-        <v>1</v>
+      <c r="N2" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="O2" s="1">
         <v>500</v>
@@ -603,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="Q2" s="1">
-        <v>500</v>
-      </c>
-      <c r="R2" s="1">
         <v>876543</v>
       </c>
-      <c r="S2" s="1" t="s">
-        <v>27</v>
+      <c r="R2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="S2" s="1">
+        <v>3</v>
       </c>
       <c r="T2" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U2" s="1">
         <v>1</v>
@@ -620,52 +616,49 @@
       <c r="V2" s="1">
         <v>1</v>
       </c>
-      <c r="W2" s="1">
-        <v>1</v>
-      </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="C3" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D3" s="1">
         <v>123456789</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="G3" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="J3" s="1">
         <v>987654321</v>
       </c>
       <c r="K3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="L3" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="M3" s="1">
         <v>1</v>
       </c>
-      <c r="N3" s="1">
-        <v>1</v>
+      <c r="N3" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="O3" s="1">
         <v>500</v>
@@ -674,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="Q3" s="1">
-        <v>500</v>
-      </c>
-      <c r="R3" s="1">
         <v>876543</v>
       </c>
-      <c r="S3" s="1" t="s">
-        <v>27</v>
+      <c r="R3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="S3" s="1">
+        <v>3</v>
       </c>
       <c r="T3" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U3" s="1">
         <v>1</v>
@@ -691,52 +684,49 @@
       <c r="V3" s="1">
         <v>1</v>
       </c>
-      <c r="W3" s="1">
-        <v>1</v>
-      </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="C4" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D4" s="1">
         <v>123456789</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="G4" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="J4" s="1">
         <v>987654321</v>
       </c>
       <c r="K4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="L4" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="M4" s="1">
         <v>1</v>
       </c>
-      <c r="N4" s="1">
-        <v>1</v>
+      <c r="N4" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="O4" s="1">
         <v>500</v>
@@ -745,24 +735,21 @@
         <v>1</v>
       </c>
       <c r="Q4" s="1">
-        <v>500</v>
-      </c>
-      <c r="R4" s="1">
         <v>876543</v>
       </c>
-      <c r="S4" s="1" t="s">
-        <v>27</v>
+      <c r="R4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="S4" s="1">
+        <v>3</v>
       </c>
       <c r="T4" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U4" s="1">
         <v>1</v>
       </c>
       <c r="V4" s="1">
-        <v>1</v>
-      </c>
-      <c r="W4" s="1">
         <v>1</v>
       </c>
     </row>

--- a/public/excel/customer_excel_structure.xlsx
+++ b/public/excel/customer_excel_structure.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="29">
   <si>
     <t>pick_up_city</t>
   </si>
@@ -84,9 +84,6 @@
   </si>
   <si>
     <t>Abu Dhabi</t>
-  </si>
-  <si>
-    <t>ZAYED PORT</t>
   </si>
   <si>
     <t>AL ZAHIYAH</t>
@@ -455,8 +452,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -522,10 +519,10 @@
         <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>28</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>13</v>
@@ -554,43 +551,43 @@
         <v>20</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D2" s="1">
         <v>123456789</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="G2" s="1" t="s">
         <v>20</v>
       </c>
       <c r="H2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="J2" s="1">
         <v>987654321</v>
       </c>
       <c r="K2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="L2" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="M2" s="1">
         <v>1</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O2" s="1">
         <v>500</v>
@@ -602,7 +599,7 @@
         <v>876543</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="S2" s="1">
         <v>3</v>
@@ -622,43 +619,43 @@
         <v>20</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D3" s="1">
         <v>123456789</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="G3" s="1" t="s">
         <v>20</v>
       </c>
       <c r="H3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="J3" s="1">
         <v>987654321</v>
       </c>
       <c r="K3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="L3" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="M3" s="1">
         <v>1</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O3" s="1">
         <v>500</v>
@@ -670,7 +667,7 @@
         <v>876543</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="S3" s="1">
         <v>3</v>
@@ -690,43 +687,43 @@
         <v>20</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D4" s="1">
         <v>123456789</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="G4" s="1" t="s">
         <v>20</v>
       </c>
       <c r="H4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="J4" s="1">
         <v>987654321</v>
       </c>
       <c r="K4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="L4" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="M4" s="1">
         <v>1</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O4" s="1">
         <v>500</v>
@@ -738,7 +735,7 @@
         <v>876543</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="S4" s="1">
         <v>3</v>
@@ -761,9 +758,10 @@
     <hyperlink ref="G3" r:id="rId4" display="http://92.99.21.209:5600/admin/area/1/1"/>
     <hyperlink ref="A4" r:id="rId5" display="http://92.99.21.209:5600/admin/area/1/1"/>
     <hyperlink ref="G4" r:id="rId6" display="http://92.99.21.209:5600/admin/area/1/1"/>
+    <hyperlink ref="B2:B4" r:id="rId7" display="http://92.99.21.209:5600/admin/area/1/1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId7"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId8"/>
 </worksheet>
 </file>
 
